--- a/Thermostat/Bcoeff.xlsx
+++ b/Thermostat/Bcoeff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddubi\Dropbox\Labs\PHC435 Lab\Section 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/d_dubins_utoronto_ca/Documents/Labs/PHC435 2025/Problem Set 4/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71663345-2DB4-418A-99DB-C3B88358195F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{71663345-2DB4-418A-99DB-C3B88358195F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C55C218E-CB21-454B-A049-4E521CB7FA3D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ThermistorCalc" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>ohm</t>
   </si>
@@ -270,6 +270,9 @@
   <si>
     <t>Thermistor B Coefficient Calculator (2-Term NTC Thermistor Equation)</t>
   </si>
+  <si>
+    <t>At a given temperature,</t>
+  </si>
 </sst>
 </file>
 
@@ -442,7 +445,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1067,6 +1070,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1074,7 +1078,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1718,8 +1721,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="619125" y="1362075"/>
-          <a:ext cx="866775" cy="666750"/>
+          <a:off x="616744" y="1395413"/>
+          <a:ext cx="864394" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2129,13 +2132,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A905A69-6D23-499A-DBA8-DFFBB792847D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="12439650"/>
+          <a:ext cx="1543050" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2173,9 +2247,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2208,26 +2282,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2260,26 +2317,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2453,24 +2493,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E62"/>
+  <dimension ref="B1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2484,7 +2524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2513,7 +2553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2528,19 +2568,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
     </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -2552,49 +2592,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="2:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E16"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="7">
         <f>(C12/C5)-LN(C3)</f>
         <v>1.3518307754252792</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2603,7 +2643,7 @@
         <v>2306.0762270150385</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
@@ -2612,12 +2652,12 @@
         <v>0.73973756048378536</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
@@ -2628,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
@@ -2640,7 +2680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
@@ -2648,7 +2688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>1000</v>
       </c>
@@ -2657,7 +2697,7 @@
         <v>104.28111986732631</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <f>B39+2000</f>
         <v>3000</v>
@@ -2667,7 +2707,7 @@
         <v>59.972327596554862</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <f t="shared" ref="B41:B62" si="1">B40+2000</f>
         <v>5000</v>
@@ -2677,7 +2717,7 @@
         <v>42.729749064308237</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <f t="shared" si="1"/>
         <v>7000</v>
@@ -2687,7 +2727,7 @@
         <v>32.315285764135467</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <f t="shared" si="1"/>
         <v>9000</v>
@@ -2697,7 +2737,7 @@
         <v>24.973866247707178</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <f t="shared" si="1"/>
         <v>11000</v>
@@ -2707,7 +2747,7 @@
         <v>19.360464568918815</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2717,7 +2757,7 @@
         <v>14.846176790860625</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <f t="shared" si="1"/>
         <v>15000</v>
@@ -2727,7 +2767,7 @@
         <v>11.088530666942347</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <f t="shared" si="1"/>
         <v>17000</v>
@@ -2737,7 +2777,7 @@
         <v>7.8813882163333346</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <f t="shared" si="1"/>
         <v>19000</v>
@@ -2747,7 +2787,7 @@
         <v>5.0915073880950672</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <f t="shared" si="1"/>
         <v>21000</v>
@@ -2757,7 +2797,7 @@
         <v>2.6280338295305228</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <f t="shared" si="1"/>
         <v>23000</v>
@@ -2767,7 +2807,7 @@
         <v>0.42638034992677376</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <f t="shared" si="1"/>
         <v>25000</v>
@@ -2777,7 +2817,7 @@
         <v>-1.5609276187902879</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <f t="shared" si="1"/>
         <v>27000</v>
@@ -2787,7 +2827,7 @@
         <v>-3.369756072375651</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <f t="shared" si="1"/>
         <v>29000</v>
@@ -2797,7 +2837,7 @@
         <v>-5.0278288837795913</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <f t="shared" si="1"/>
         <v>31000</v>
@@ -2807,7 +2847,7 @@
         <v>-6.55699672062633</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <f t="shared" si="1"/>
         <v>33000</v>
@@ -2817,7 +2857,7 @@
         <v>-7.9747712193973825</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <f t="shared" si="1"/>
         <v>35000</v>
@@ -2827,7 +2867,7 @@
         <v>-9.2953916225321791</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <f t="shared" si="1"/>
         <v>37000</v>
@@ -2837,7 +2877,7 @@
         <v>-10.530584446252533</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <f t="shared" si="1"/>
         <v>39000</v>
@@ -2847,7 +2887,7 @@
         <v>-11.690116045436412</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <f t="shared" si="1"/>
         <v>41000</v>
@@ -2857,7 +2897,7 @@
         <v>-12.782202078854311</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="7">
         <f t="shared" si="1"/>
         <v>43000</v>
@@ -2867,7 +2907,7 @@
         <v>-13.813815989885882</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <f t="shared" si="1"/>
         <v>45000</v>
@@ -2877,7 +2917,7 @@
         <v>-14.790924870574031</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7">
         <f t="shared" si="1"/>
         <v>47000</v>
@@ -2885,6 +2925,42 @@
       <c r="C62" s="9">
         <f t="shared" si="0"/>
         <v>-15.718672220077053</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2">
+        <v>22</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="7">
+        <f>$C$3*EXP($C$12*((1/(D68+273.15)-(1/C5))))</f>
+        <v>10000</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
